--- a/login.xlsx
+++ b/login.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -113,74 +113,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -468,7 +400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -476,12 +408,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="26.26" customWidth="1" style="4" min="1" max="1"/>
+    <col width="44.6" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.75" customWidth="1" style="4" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -517,32 +449,48 @@
     <row r="3" ht="12.8" customHeight="1" s="5">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>thantzinmoefeb13@gmai.com</t>
+          <t>tzmtzm1439@gmail.com</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>#Tzm251398</t>
+          <t>Tzm251398</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>tzmoe14ep@ytu.edu.mm</t>
+          <t>thantzinmoechochoaungmarch25@gmail.com</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>thantzinmoe25</t>
+          <t>#Tzm251398</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tzm12ep@ytu.edu.mm" r:id="rId1"/>
-    <hyperlink ref="A3" display="thantzinmoefeb13@gmai.com" r:id="rId2"/>
-    <hyperlink ref="A4" display="tzmoe14ep@ytu.edu.mm" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="tzm12ep@ytu.edu.mm" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="tzmtzm1439@gmail.com" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="thantzinmoechochoaungmarch25@gmail.com" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="tzm12ep@ytu.edu.mm" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="tzmtzm1439@gmail.com" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="thantzinmoechochoaungmarch25@gmail.com" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="tzm12ep@ytu.edu.mm" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="tzmtzm1439@gmail.com" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="thantzinmoechochoaungmarch25@gmail.com" r:id="rId9"/>
   </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
